--- a/data/pytest_data_v2.xlsx
+++ b/data/pytest_data_v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jess9\Documents\Co-opDocuments\UHN\JupyterNotebook\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9916FB97-C768-4116-A444-DB01C7948CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AE9DB0-AA6E-498E-BB43-B05B61291FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{4784587D-BF86-483F-A4DD-B2F93D88FED1}"/>
   </bookViews>
@@ -363,9 +363,6 @@
     <t>ABC-01-01</t>
   </si>
   <si>
-    <t>2022 JUNE</t>
-  </si>
-  <si>
     <t>2023 FEB 01</t>
   </si>
   <si>
@@ -429,15 +426,6 @@
     <t>Not Reported</t>
   </si>
   <si>
-    <t>2022 AUGUST</t>
-  </si>
-  <si>
-    <t>2025 JUNE</t>
-  </si>
-  <si>
-    <t>2022 JULY</t>
-  </si>
-  <si>
     <t>2024 JAN 11</t>
   </si>
   <si>
@@ -508,6 +496,18 @@
   </si>
   <si>
     <t>2021 Jan 18</t>
+  </si>
+  <si>
+    <t>2022 JUNE 1</t>
+  </si>
+  <si>
+    <t>2022 AUGUST 1</t>
+  </si>
+  <si>
+    <t>2025 JUNE 1</t>
+  </si>
+  <si>
+    <t>2022 JULY 1</t>
   </si>
 </sst>
 </file>
@@ -862,7 +862,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -922,7 +922,7 @@
         <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
         <v>101</v>
@@ -952,7 +952,7 @@
         <v>9</v>
       </c>
       <c r="N2" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -963,13 +963,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" t="s">
         <v>126</v>
-      </c>
-      <c r="C3" t="s">
-        <v>127</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -990,13 +990,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L3">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="O3">
         <v>5</v>
@@ -1007,10 +1007,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
         <v>101</v>
@@ -1040,7 +1040,7 @@
         <v>9</v>
       </c>
       <c r="N4" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="O4">
         <v>4</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
         <v>106</v>
@@ -1078,13 +1078,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L5">
         <v>8</v>
       </c>
       <c r="N5" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="O5">
         <v>2</v>
@@ -1095,13 +1095,13 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1131,7 +1131,7 @@
         <v>9</v>
       </c>
       <c r="N6" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1142,10 +1142,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
         <v>101</v>
@@ -1175,7 +1175,7 @@
         <v>9</v>
       </c>
       <c r="N7" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="O7">
         <v>4</v>
@@ -1194,7 +1194,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1236,7 +1236,7 @@
         <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -1245,7 +1245,7 @@
         <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
         <v>105</v>
@@ -1254,76 +1254,76 @@
         <v>106</v>
       </c>
       <c r="H2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I2">
         <v>4.8</v>
       </c>
       <c r="J2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
         <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3" t="s">
         <v>110</v>
-      </c>
-      <c r="F3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H3" t="s">
-        <v>111</v>
       </c>
       <c r="I3">
         <v>4.8</v>
       </c>
       <c r="J3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" t="s">
         <v>134</v>
       </c>
-      <c r="D4" t="s">
-        <v>138</v>
-      </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G4" t="s">
         <v>106</v>
       </c>
       <c r="H4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I4">
         <v>4.8</v>
       </c>
       <c r="J4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
         <v>103</v>
@@ -1332,7 +1332,7 @@
         <v>104</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F5" t="s">
         <v>105</v>
@@ -1341,30 +1341,30 @@
         <v>106</v>
       </c>
       <c r="H5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I5">
         <v>4.8</v>
       </c>
       <c r="J5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D6" t="s">
         <v>104</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F6" t="s">
         <v>105</v>
@@ -1373,65 +1373,65 @@
         <v>106</v>
       </c>
       <c r="H6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I6">
         <v>4.8</v>
       </c>
       <c r="J6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" t="s">
         <v>134</v>
       </c>
-      <c r="D7" t="s">
-        <v>138</v>
-      </c>
       <c r="E7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G7" t="s">
         <v>106</v>
       </c>
       <c r="H7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I7">
         <v>4.8</v>
       </c>
       <c r="J7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G8" t="s">
         <v>106</v>
       </c>
       <c r="H8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I8">
         <v>4.8</v>
       </c>
       <c r="J8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1681,7 +1681,7 @@
         <v>0.11</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E2">
         <v>0.11</v>
@@ -1690,7 +1690,7 @@
         <v>0.11</v>
       </c>
       <c r="G2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H2">
         <v>0.11</v>
@@ -1699,7 +1699,7 @@
         <v>0.11</v>
       </c>
       <c r="J2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K2">
         <v>0.11</v>
@@ -1708,7 +1708,7 @@
         <v>0.11</v>
       </c>
       <c r="M2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N2">
         <v>0.11</v>
@@ -1717,7 +1717,7 @@
         <v>0.11</v>
       </c>
       <c r="P2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q2">
         <v>0.11</v>
@@ -1726,7 +1726,7 @@
         <v>0.11</v>
       </c>
       <c r="S2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T2">
         <v>0.11</v>
@@ -1735,7 +1735,7 @@
         <v>0.11</v>
       </c>
       <c r="V2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W2">
         <v>0.11</v>
@@ -1744,143 +1744,143 @@
         <v>0.11</v>
       </c>
       <c r="Y2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z2">
+        <v>0.11</v>
+      </c>
+      <c r="AA2">
+        <v>0.11</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC2">
+        <v>0.11</v>
+      </c>
+      <c r="AD2">
+        <v>0.11</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF2">
+        <v>0.11</v>
+      </c>
+      <c r="AG2">
+        <v>0.11</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI2">
+        <v>0.11</v>
+      </c>
+      <c r="AJ2">
+        <v>0.11</v>
+      </c>
+      <c r="AK2" t="s">
         <v>114</v>
       </c>
-      <c r="Z2">
-        <v>0.11</v>
-      </c>
-      <c r="AA2">
-        <v>0.11</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AL2">
+        <v>0.11</v>
+      </c>
+      <c r="AM2">
+        <v>0.11</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO2">
+        <v>0.11</v>
+      </c>
+      <c r="AP2">
+        <v>0.11</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR2">
+        <v>0.11</v>
+      </c>
+      <c r="AS2">
+        <v>0.11</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AU2">
+        <v>0.11</v>
+      </c>
+      <c r="AV2">
+        <v>0.11</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX2">
+        <v>0.11</v>
+      </c>
+      <c r="AY2">
+        <v>0.11</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA2">
+        <v>0.11</v>
+      </c>
+      <c r="BB2">
+        <v>0.11</v>
+      </c>
+      <c r="BC2" t="s">
         <v>114</v>
       </c>
-      <c r="AC2">
-        <v>0.11</v>
-      </c>
-      <c r="AD2">
-        <v>0.11</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF2">
-        <v>0.11</v>
-      </c>
-      <c r="AG2">
-        <v>0.11</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI2">
-        <v>0.11</v>
-      </c>
-      <c r="AJ2">
-        <v>0.11</v>
-      </c>
-      <c r="AK2" t="s">
+      <c r="BD2">
+        <v>0.11</v>
+      </c>
+      <c r="BE2">
+        <v>0.11</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>116</v>
+      </c>
+      <c r="BG2">
+        <v>0.11</v>
+      </c>
+      <c r="BH2">
+        <v>0.11</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>116</v>
+      </c>
+      <c r="BJ2">
+        <v>0.11</v>
+      </c>
+      <c r="BK2">
+        <v>0.11</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BM2">
+        <v>0.11</v>
+      </c>
+      <c r="BN2">
+        <v>0.11</v>
+      </c>
+      <c r="BO2" t="s">
         <v>115</v>
       </c>
-      <c r="AL2">
-        <v>0.11</v>
-      </c>
-      <c r="AM2">
-        <v>0.11</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO2">
-        <v>0.11</v>
-      </c>
-      <c r="AP2">
-        <v>0.11</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR2">
-        <v>0.11</v>
-      </c>
-      <c r="AS2">
-        <v>0.11</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU2">
-        <v>0.11</v>
-      </c>
-      <c r="AV2">
-        <v>0.11</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AX2">
-        <v>0.11</v>
-      </c>
-      <c r="AY2">
-        <v>0.11</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BA2">
-        <v>0.11</v>
-      </c>
-      <c r="BB2">
-        <v>0.11</v>
-      </c>
-      <c r="BC2" t="s">
+      <c r="BP2">
+        <v>0.11</v>
+      </c>
+      <c r="BQ2">
+        <v>0.11</v>
+      </c>
+      <c r="BR2" t="s">
         <v>115</v>
       </c>
-      <c r="BD2">
-        <v>0.11</v>
-      </c>
-      <c r="BE2">
-        <v>0.11</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>117</v>
-      </c>
-      <c r="BG2">
-        <v>0.11</v>
-      </c>
-      <c r="BH2">
-        <v>0.11</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>117</v>
-      </c>
-      <c r="BJ2">
-        <v>0.11</v>
-      </c>
-      <c r="BK2">
-        <v>0.11</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BM2">
-        <v>0.11</v>
-      </c>
-      <c r="BN2">
-        <v>0.11</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>116</v>
-      </c>
-      <c r="BP2">
-        <v>0.11</v>
-      </c>
-      <c r="BQ2">
-        <v>0.11</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>116</v>
-      </c>
       <c r="BS2">
         <v>0.11</v>
       </c>
@@ -1888,12 +1888,12 @@
         <v>0.11</v>
       </c>
       <c r="BU2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3">
         <v>0.11</v>
@@ -1902,7 +1902,7 @@
         <v>0.11</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E3">
         <v>0.11</v>
@@ -1911,7 +1911,7 @@
         <v>0.11</v>
       </c>
       <c r="G3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H3">
         <v>0.11</v>
@@ -1920,7 +1920,7 @@
         <v>0.11</v>
       </c>
       <c r="J3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K3">
         <v>0.11</v>
@@ -1929,7 +1929,7 @@
         <v>0.11</v>
       </c>
       <c r="M3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N3">
         <v>0.11</v>
@@ -1938,7 +1938,7 @@
         <v>0.11</v>
       </c>
       <c r="P3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q3">
         <v>0.11</v>
@@ -1947,7 +1947,7 @@
         <v>0.11</v>
       </c>
       <c r="S3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T3">
         <v>0.11</v>
@@ -1956,7 +1956,7 @@
         <v>0.11</v>
       </c>
       <c r="V3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W3">
         <v>0.11</v>
@@ -1965,143 +1965,143 @@
         <v>0.11</v>
       </c>
       <c r="Y3" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z3">
+        <v>0.11</v>
+      </c>
+      <c r="AA3">
+        <v>0.11</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC3">
+        <v>0.11</v>
+      </c>
+      <c r="AD3">
+        <v>0.11</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF3">
+        <v>0.11</v>
+      </c>
+      <c r="AG3">
+        <v>0.11</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI3">
+        <v>0.11</v>
+      </c>
+      <c r="AJ3">
+        <v>0.11</v>
+      </c>
+      <c r="AK3" t="s">
         <v>114</v>
       </c>
-      <c r="Z3">
-        <v>0.11</v>
-      </c>
-      <c r="AA3">
-        <v>0.11</v>
-      </c>
-      <c r="AB3" t="s">
+      <c r="AL3">
+        <v>0.11</v>
+      </c>
+      <c r="AM3">
+        <v>0.11</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO3">
+        <v>0.11</v>
+      </c>
+      <c r="AP3">
+        <v>0.11</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR3">
+        <v>0.11</v>
+      </c>
+      <c r="AS3">
+        <v>0.11</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AU3">
+        <v>0.11</v>
+      </c>
+      <c r="AV3">
+        <v>0.11</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX3">
+        <v>0.11</v>
+      </c>
+      <c r="AY3">
+        <v>0.11</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA3">
+        <v>0.11</v>
+      </c>
+      <c r="BB3">
+        <v>0.11</v>
+      </c>
+      <c r="BC3" t="s">
         <v>114</v>
       </c>
-      <c r="AC3">
-        <v>0.11</v>
-      </c>
-      <c r="AD3">
-        <v>0.11</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF3">
-        <v>0.11</v>
-      </c>
-      <c r="AG3">
-        <v>0.11</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI3">
-        <v>0.11</v>
-      </c>
-      <c r="AJ3">
-        <v>0.11</v>
-      </c>
-      <c r="AK3" t="s">
+      <c r="BD3">
+        <v>0.11</v>
+      </c>
+      <c r="BE3">
+        <v>0.11</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>116</v>
+      </c>
+      <c r="BG3">
+        <v>0.11</v>
+      </c>
+      <c r="BH3">
+        <v>0.11</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>116</v>
+      </c>
+      <c r="BJ3">
+        <v>0.11</v>
+      </c>
+      <c r="BK3">
+        <v>0.11</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BM3">
+        <v>0.11</v>
+      </c>
+      <c r="BN3">
+        <v>0.11</v>
+      </c>
+      <c r="BO3" t="s">
         <v>115</v>
       </c>
-      <c r="AL3">
-        <v>0.11</v>
-      </c>
-      <c r="AM3">
-        <v>0.11</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO3">
-        <v>0.11</v>
-      </c>
-      <c r="AP3">
-        <v>0.11</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR3">
-        <v>0.11</v>
-      </c>
-      <c r="AS3">
-        <v>0.11</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU3">
-        <v>0.11</v>
-      </c>
-      <c r="AV3">
-        <v>0.11</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AX3">
-        <v>0.11</v>
-      </c>
-      <c r="AY3">
-        <v>0.11</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BA3">
-        <v>0.11</v>
-      </c>
-      <c r="BB3">
-        <v>0.11</v>
-      </c>
-      <c r="BC3" t="s">
+      <c r="BP3">
+        <v>0.11</v>
+      </c>
+      <c r="BQ3">
+        <v>0.11</v>
+      </c>
+      <c r="BR3" t="s">
         <v>115</v>
       </c>
-      <c r="BD3">
-        <v>0.11</v>
-      </c>
-      <c r="BE3">
-        <v>0.11</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>117</v>
-      </c>
-      <c r="BG3">
-        <v>0.11</v>
-      </c>
-      <c r="BH3">
-        <v>0.11</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>117</v>
-      </c>
-      <c r="BJ3">
-        <v>0.11</v>
-      </c>
-      <c r="BK3">
-        <v>0.11</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BM3">
-        <v>0.11</v>
-      </c>
-      <c r="BN3">
-        <v>0.11</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>116</v>
-      </c>
-      <c r="BP3">
-        <v>0.11</v>
-      </c>
-      <c r="BQ3">
-        <v>0.11</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>116</v>
-      </c>
       <c r="BS3">
         <v>0.11</v>
       </c>
@@ -2109,12 +2109,12 @@
         <v>0.11</v>
       </c>
       <c r="BU3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4">
         <v>0.11</v>
@@ -2123,7 +2123,7 @@
         <v>0.11</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E4">
         <v>0.11</v>
@@ -2132,7 +2132,7 @@
         <v>0.11</v>
       </c>
       <c r="G4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H4">
         <v>0.11</v>
@@ -2141,7 +2141,7 @@
         <v>0.11</v>
       </c>
       <c r="J4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K4">
         <v>0.11</v>
@@ -2150,7 +2150,7 @@
         <v>0.11</v>
       </c>
       <c r="M4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N4">
         <v>0.11</v>
@@ -2159,7 +2159,7 @@
         <v>0.11</v>
       </c>
       <c r="P4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q4">
         <v>0.11</v>
@@ -2168,7 +2168,7 @@
         <v>0.11</v>
       </c>
       <c r="S4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T4">
         <v>0.11</v>
@@ -2177,7 +2177,7 @@
         <v>0.11</v>
       </c>
       <c r="V4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W4">
         <v>0.11</v>
@@ -2186,143 +2186,143 @@
         <v>0.11</v>
       </c>
       <c r="Y4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z4">
+        <v>0.11</v>
+      </c>
+      <c r="AA4">
+        <v>0.11</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC4">
+        <v>0.11</v>
+      </c>
+      <c r="AD4">
+        <v>0.11</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF4">
+        <v>0.11</v>
+      </c>
+      <c r="AG4">
+        <v>0.11</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI4">
+        <v>0.11</v>
+      </c>
+      <c r="AJ4">
+        <v>0.11</v>
+      </c>
+      <c r="AK4" t="s">
         <v>114</v>
       </c>
-      <c r="Z4">
-        <v>0.11</v>
-      </c>
-      <c r="AA4">
-        <v>0.11</v>
-      </c>
-      <c r="AB4" t="s">
+      <c r="AL4">
+        <v>0.11</v>
+      </c>
+      <c r="AM4">
+        <v>0.11</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO4">
+        <v>0.11</v>
+      </c>
+      <c r="AP4">
+        <v>0.11</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR4">
+        <v>0.11</v>
+      </c>
+      <c r="AS4">
+        <v>0.11</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AU4">
+        <v>0.11</v>
+      </c>
+      <c r="AV4">
+        <v>0.11</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX4">
+        <v>0.11</v>
+      </c>
+      <c r="AY4">
+        <v>0.11</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA4">
+        <v>0.11</v>
+      </c>
+      <c r="BB4">
+        <v>0.11</v>
+      </c>
+      <c r="BC4" t="s">
         <v>114</v>
       </c>
-      <c r="AC4">
-        <v>0.11</v>
-      </c>
-      <c r="AD4">
-        <v>0.11</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF4">
-        <v>0.11</v>
-      </c>
-      <c r="AG4">
-        <v>0.11</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI4">
-        <v>0.11</v>
-      </c>
-      <c r="AJ4">
-        <v>0.11</v>
-      </c>
-      <c r="AK4" t="s">
+      <c r="BD4">
+        <v>0.11</v>
+      </c>
+      <c r="BE4">
+        <v>0.11</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BG4">
+        <v>0.11</v>
+      </c>
+      <c r="BH4">
+        <v>0.11</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BJ4">
+        <v>0.11</v>
+      </c>
+      <c r="BK4">
+        <v>0.11</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BM4">
+        <v>0.11</v>
+      </c>
+      <c r="BN4">
+        <v>0.11</v>
+      </c>
+      <c r="BO4" t="s">
         <v>115</v>
       </c>
-      <c r="AL4">
-        <v>0.11</v>
-      </c>
-      <c r="AM4">
-        <v>0.11</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO4">
-        <v>0.11</v>
-      </c>
-      <c r="AP4">
-        <v>0.11</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR4">
-        <v>0.11</v>
-      </c>
-      <c r="AS4">
-        <v>0.11</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU4">
-        <v>0.11</v>
-      </c>
-      <c r="AV4">
-        <v>0.11</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AX4">
-        <v>0.11</v>
-      </c>
-      <c r="AY4">
-        <v>0.11</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>114</v>
-      </c>
-      <c r="BA4">
-        <v>0.11</v>
-      </c>
-      <c r="BB4">
-        <v>0.11</v>
-      </c>
-      <c r="BC4" t="s">
+      <c r="BP4">
+        <v>0.11</v>
+      </c>
+      <c r="BQ4">
+        <v>0.11</v>
+      </c>
+      <c r="BR4" t="s">
         <v>115</v>
       </c>
-      <c r="BD4">
-        <v>0.11</v>
-      </c>
-      <c r="BE4">
-        <v>0.11</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>117</v>
-      </c>
-      <c r="BG4">
-        <v>0.11</v>
-      </c>
-      <c r="BH4">
-        <v>0.11</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>117</v>
-      </c>
-      <c r="BJ4">
-        <v>0.11</v>
-      </c>
-      <c r="BK4">
-        <v>0.11</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>114</v>
-      </c>
-      <c r="BM4">
-        <v>0.11</v>
-      </c>
-      <c r="BN4">
-        <v>0.11</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>116</v>
-      </c>
-      <c r="BP4">
-        <v>0.11</v>
-      </c>
-      <c r="BQ4">
-        <v>0.11</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>116</v>
-      </c>
       <c r="BS4">
         <v>0.11</v>
       </c>
@@ -2330,12 +2330,12 @@
         <v>0.11</v>
       </c>
       <c r="BU4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5">
         <v>0.11</v>
@@ -2344,7 +2344,7 @@
         <v>0.11</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E5">
         <v>0.11</v>
@@ -2353,7 +2353,7 @@
         <v>0.11</v>
       </c>
       <c r="G5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H5">
         <v>0.11</v>
@@ -2362,7 +2362,7 @@
         <v>0.11</v>
       </c>
       <c r="J5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K5">
         <v>0.11</v>
@@ -2371,7 +2371,7 @@
         <v>0.11</v>
       </c>
       <c r="M5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N5">
         <v>0.11</v>
@@ -2380,7 +2380,7 @@
         <v>0.11</v>
       </c>
       <c r="P5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q5">
         <v>0.11</v>
@@ -2389,7 +2389,7 @@
         <v>0.11</v>
       </c>
       <c r="S5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T5">
         <v>0.11</v>
@@ -2398,7 +2398,7 @@
         <v>0.11</v>
       </c>
       <c r="V5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W5">
         <v>0.11</v>
@@ -2407,143 +2407,143 @@
         <v>0.11</v>
       </c>
       <c r="Y5" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z5">
+        <v>0.11</v>
+      </c>
+      <c r="AA5">
+        <v>0.11</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC5">
+        <v>0.11</v>
+      </c>
+      <c r="AD5">
+        <v>0.11</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF5">
+        <v>0.11</v>
+      </c>
+      <c r="AG5">
+        <v>0.11</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI5">
+        <v>0.11</v>
+      </c>
+      <c r="AJ5">
+        <v>0.11</v>
+      </c>
+      <c r="AK5" t="s">
         <v>114</v>
       </c>
-      <c r="Z5">
-        <v>0.11</v>
-      </c>
-      <c r="AA5">
-        <v>0.11</v>
-      </c>
-      <c r="AB5" t="s">
+      <c r="AL5">
+        <v>0.11</v>
+      </c>
+      <c r="AM5">
+        <v>0.11</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO5">
+        <v>0.11</v>
+      </c>
+      <c r="AP5">
+        <v>0.11</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR5">
+        <v>0.11</v>
+      </c>
+      <c r="AS5">
+        <v>0.11</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AU5">
+        <v>0.11</v>
+      </c>
+      <c r="AV5">
+        <v>0.11</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX5">
+        <v>0.11</v>
+      </c>
+      <c r="AY5">
+        <v>0.11</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA5">
+        <v>0.11</v>
+      </c>
+      <c r="BB5">
+        <v>0.11</v>
+      </c>
+      <c r="BC5" t="s">
         <v>114</v>
       </c>
-      <c r="AC5">
-        <v>0.11</v>
-      </c>
-      <c r="AD5">
-        <v>0.11</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF5">
-        <v>0.11</v>
-      </c>
-      <c r="AG5">
-        <v>0.11</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI5">
-        <v>0.11</v>
-      </c>
-      <c r="AJ5">
-        <v>0.11</v>
-      </c>
-      <c r="AK5" t="s">
+      <c r="BD5">
+        <v>0.11</v>
+      </c>
+      <c r="BE5">
+        <v>0.11</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>116</v>
+      </c>
+      <c r="BG5">
+        <v>0.11</v>
+      </c>
+      <c r="BH5">
+        <v>0.11</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>116</v>
+      </c>
+      <c r="BJ5">
+        <v>0.11</v>
+      </c>
+      <c r="BK5">
+        <v>0.11</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BM5">
+        <v>0.11</v>
+      </c>
+      <c r="BN5">
+        <v>0.11</v>
+      </c>
+      <c r="BO5" t="s">
         <v>115</v>
       </c>
-      <c r="AL5">
-        <v>0.11</v>
-      </c>
-      <c r="AM5">
-        <v>0.11</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO5">
-        <v>0.11</v>
-      </c>
-      <c r="AP5">
-        <v>0.11</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR5">
-        <v>0.11</v>
-      </c>
-      <c r="AS5">
-        <v>0.11</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU5">
-        <v>0.11</v>
-      </c>
-      <c r="AV5">
-        <v>0.11</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AX5">
-        <v>0.11</v>
-      </c>
-      <c r="AY5">
-        <v>0.11</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>114</v>
-      </c>
-      <c r="BA5">
-        <v>0.11</v>
-      </c>
-      <c r="BB5">
-        <v>0.11</v>
-      </c>
-      <c r="BC5" t="s">
+      <c r="BP5">
+        <v>0.11</v>
+      </c>
+      <c r="BQ5">
+        <v>0.11</v>
+      </c>
+      <c r="BR5" t="s">
         <v>115</v>
       </c>
-      <c r="BD5">
-        <v>0.11</v>
-      </c>
-      <c r="BE5">
-        <v>0.11</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>117</v>
-      </c>
-      <c r="BG5">
-        <v>0.11</v>
-      </c>
-      <c r="BH5">
-        <v>0.11</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>117</v>
-      </c>
-      <c r="BJ5">
-        <v>0.11</v>
-      </c>
-      <c r="BK5">
-        <v>0.11</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>114</v>
-      </c>
-      <c r="BM5">
-        <v>0.11</v>
-      </c>
-      <c r="BN5">
-        <v>0.11</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>116</v>
-      </c>
-      <c r="BP5">
-        <v>0.11</v>
-      </c>
-      <c r="BQ5">
-        <v>0.11</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>116</v>
-      </c>
       <c r="BS5">
         <v>0.11</v>
       </c>
@@ -2551,12 +2551,12 @@
         <v>0.11</v>
       </c>
       <c r="BU5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6">
         <v>0.11</v>
@@ -2565,7 +2565,7 @@
         <v>0.11</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E6">
         <v>0.11</v>
@@ -2574,7 +2574,7 @@
         <v>0.11</v>
       </c>
       <c r="G6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H6">
         <v>0.11</v>
@@ -2583,7 +2583,7 @@
         <v>0.11</v>
       </c>
       <c r="J6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K6">
         <v>0.11</v>
@@ -2592,7 +2592,7 @@
         <v>0.11</v>
       </c>
       <c r="M6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N6">
         <v>0.11</v>
@@ -2601,7 +2601,7 @@
         <v>0.11</v>
       </c>
       <c r="P6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q6">
         <v>0.11</v>
@@ -2610,7 +2610,7 @@
         <v>0.11</v>
       </c>
       <c r="S6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T6">
         <v>0.11</v>
@@ -2619,7 +2619,7 @@
         <v>0.11</v>
       </c>
       <c r="V6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W6">
         <v>0.11</v>
@@ -2628,143 +2628,143 @@
         <v>0.11</v>
       </c>
       <c r="Y6" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z6">
+        <v>0.11</v>
+      </c>
+      <c r="AA6">
+        <v>0.11</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC6">
+        <v>0.11</v>
+      </c>
+      <c r="AD6">
+        <v>0.11</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF6">
+        <v>0.11</v>
+      </c>
+      <c r="AG6">
+        <v>0.11</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI6">
+        <v>0.11</v>
+      </c>
+      <c r="AJ6">
+        <v>0.11</v>
+      </c>
+      <c r="AK6" t="s">
         <v>114</v>
       </c>
-      <c r="Z6">
-        <v>0.11</v>
-      </c>
-      <c r="AA6">
-        <v>0.11</v>
-      </c>
-      <c r="AB6" t="s">
+      <c r="AL6">
+        <v>0.11</v>
+      </c>
+      <c r="AM6">
+        <v>0.11</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO6">
+        <v>0.11</v>
+      </c>
+      <c r="AP6">
+        <v>0.11</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR6">
+        <v>0.11</v>
+      </c>
+      <c r="AS6">
+        <v>0.11</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AU6">
+        <v>0.11</v>
+      </c>
+      <c r="AV6">
+        <v>0.11</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX6">
+        <v>0.11</v>
+      </c>
+      <c r="AY6">
+        <v>0.11</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA6">
+        <v>0.11</v>
+      </c>
+      <c r="BB6">
+        <v>0.11</v>
+      </c>
+      <c r="BC6" t="s">
         <v>114</v>
       </c>
-      <c r="AC6">
-        <v>0.11</v>
-      </c>
-      <c r="AD6">
-        <v>0.11</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF6">
-        <v>0.11</v>
-      </c>
-      <c r="AG6">
-        <v>0.11</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI6">
-        <v>0.11</v>
-      </c>
-      <c r="AJ6">
-        <v>0.11</v>
-      </c>
-      <c r="AK6" t="s">
+      <c r="BD6">
+        <v>0.11</v>
+      </c>
+      <c r="BE6">
+        <v>0.11</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>116</v>
+      </c>
+      <c r="BG6">
+        <v>0.11</v>
+      </c>
+      <c r="BH6">
+        <v>0.11</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>116</v>
+      </c>
+      <c r="BJ6">
+        <v>0.11</v>
+      </c>
+      <c r="BK6">
+        <v>0.11</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>113</v>
+      </c>
+      <c r="BM6">
+        <v>0.11</v>
+      </c>
+      <c r="BN6">
+        <v>0.11</v>
+      </c>
+      <c r="BO6" t="s">
         <v>115</v>
       </c>
-      <c r="AL6">
-        <v>0.11</v>
-      </c>
-      <c r="AM6">
-        <v>0.11</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO6">
-        <v>0.11</v>
-      </c>
-      <c r="AP6">
-        <v>0.11</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR6">
-        <v>0.11</v>
-      </c>
-      <c r="AS6">
-        <v>0.11</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU6">
-        <v>0.11</v>
-      </c>
-      <c r="AV6">
-        <v>0.11</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>114</v>
-      </c>
-      <c r="AX6">
-        <v>0.11</v>
-      </c>
-      <c r="AY6">
-        <v>0.11</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>114</v>
-      </c>
-      <c r="BA6">
-        <v>0.11</v>
-      </c>
-      <c r="BB6">
-        <v>0.11</v>
-      </c>
-      <c r="BC6" t="s">
+      <c r="BP6">
+        <v>0.11</v>
+      </c>
+      <c r="BQ6">
+        <v>0.11</v>
+      </c>
+      <c r="BR6" t="s">
         <v>115</v>
       </c>
-      <c r="BD6">
-        <v>0.11</v>
-      </c>
-      <c r="BE6">
-        <v>0.11</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>117</v>
-      </c>
-      <c r="BG6">
-        <v>0.11</v>
-      </c>
-      <c r="BH6">
-        <v>0.11</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>117</v>
-      </c>
-      <c r="BJ6">
-        <v>0.11</v>
-      </c>
-      <c r="BK6">
-        <v>0.11</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>114</v>
-      </c>
-      <c r="BM6">
-        <v>0.11</v>
-      </c>
-      <c r="BN6">
-        <v>0.11</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>116</v>
-      </c>
-      <c r="BP6">
-        <v>0.11</v>
-      </c>
-      <c r="BQ6">
-        <v>0.11</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>116</v>
-      </c>
       <c r="BS6">
         <v>0.11</v>
       </c>
@@ -2772,12 +2772,12 @@
         <v>0.11</v>
       </c>
       <c r="BU6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7">
         <v>0.11</v>
@@ -2786,7 +2786,7 @@
         <v>0.11</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E7">
         <v>0.11</v>
@@ -2795,7 +2795,7 @@
         <v>0.11</v>
       </c>
       <c r="G7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H7">
         <v>0.11</v>
@@ -2804,7 +2804,7 @@
         <v>0.11</v>
       </c>
       <c r="J7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K7">
         <v>0.11</v>
@@ -2813,7 +2813,7 @@
         <v>0.11</v>
       </c>
       <c r="M7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N7">
         <v>0.11</v>
@@ -2822,7 +2822,7 @@
         <v>0.11</v>
       </c>
       <c r="P7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q7">
         <v>0.11</v>
@@ -2831,7 +2831,7 @@
         <v>0.11</v>
       </c>
       <c r="S7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T7">
         <v>0.11</v>
@@ -2840,7 +2840,7 @@
         <v>0.11</v>
       </c>
       <c r="V7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W7">
         <v>0.11</v>
@@ -2849,143 +2849,143 @@
         <v>0.11</v>
       </c>
       <c r="Y7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z7">
+        <v>0.11</v>
+      </c>
+      <c r="AA7">
+        <v>0.11</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC7">
+        <v>0.11</v>
+      </c>
+      <c r="AD7">
+        <v>0.11</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF7">
+        <v>0.11</v>
+      </c>
+      <c r="AG7">
+        <v>0.11</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI7">
+        <v>0.11</v>
+      </c>
+      <c r="AJ7">
+        <v>0.11</v>
+      </c>
+      <c r="AK7" t="s">
         <v>114</v>
       </c>
-      <c r="Z7">
-        <v>0.11</v>
-      </c>
-      <c r="AA7">
-        <v>0.11</v>
-      </c>
-      <c r="AB7" t="s">
+      <c r="AL7">
+        <v>0.11</v>
+      </c>
+      <c r="AM7">
+        <v>0.11</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO7">
+        <v>0.11</v>
+      </c>
+      <c r="AP7">
+        <v>0.11</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR7">
+        <v>0.11</v>
+      </c>
+      <c r="AS7">
+        <v>0.11</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AU7">
+        <v>0.11</v>
+      </c>
+      <c r="AV7">
+        <v>0.11</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX7">
+        <v>0.11</v>
+      </c>
+      <c r="AY7">
+        <v>0.11</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA7">
+        <v>0.11</v>
+      </c>
+      <c r="BB7">
+        <v>0.11</v>
+      </c>
+      <c r="BC7" t="s">
         <v>114</v>
       </c>
-      <c r="AC7">
-        <v>0.11</v>
-      </c>
-      <c r="AD7">
-        <v>0.11</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF7">
-        <v>0.11</v>
-      </c>
-      <c r="AG7">
-        <v>0.11</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI7">
-        <v>0.11</v>
-      </c>
-      <c r="AJ7">
-        <v>0.11</v>
-      </c>
-      <c r="AK7" t="s">
+      <c r="BD7">
+        <v>0.11</v>
+      </c>
+      <c r="BE7">
+        <v>0.11</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>116</v>
+      </c>
+      <c r="BG7">
+        <v>0.11</v>
+      </c>
+      <c r="BH7">
+        <v>0.11</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>116</v>
+      </c>
+      <c r="BJ7">
+        <v>0.11</v>
+      </c>
+      <c r="BK7">
+        <v>0.11</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>113</v>
+      </c>
+      <c r="BM7">
+        <v>0.11</v>
+      </c>
+      <c r="BN7">
+        <v>0.11</v>
+      </c>
+      <c r="BO7" t="s">
         <v>115</v>
       </c>
-      <c r="AL7">
-        <v>0.11</v>
-      </c>
-      <c r="AM7">
-        <v>0.11</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO7">
-        <v>0.11</v>
-      </c>
-      <c r="AP7">
-        <v>0.11</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR7">
-        <v>0.11</v>
-      </c>
-      <c r="AS7">
-        <v>0.11</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU7">
-        <v>0.11</v>
-      </c>
-      <c r="AV7">
-        <v>0.11</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>114</v>
-      </c>
-      <c r="AX7">
-        <v>0.11</v>
-      </c>
-      <c r="AY7">
-        <v>0.11</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>114</v>
-      </c>
-      <c r="BA7">
-        <v>0.11</v>
-      </c>
-      <c r="BB7">
-        <v>0.11</v>
-      </c>
-      <c r="BC7" t="s">
+      <c r="BP7">
+        <v>0.11</v>
+      </c>
+      <c r="BQ7">
+        <v>0.11</v>
+      </c>
+      <c r="BR7" t="s">
         <v>115</v>
       </c>
-      <c r="BD7">
-        <v>0.11</v>
-      </c>
-      <c r="BE7">
-        <v>0.11</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>117</v>
-      </c>
-      <c r="BG7">
-        <v>0.11</v>
-      </c>
-      <c r="BH7">
-        <v>0.11</v>
-      </c>
-      <c r="BI7" t="s">
-        <v>117</v>
-      </c>
-      <c r="BJ7">
-        <v>0.11</v>
-      </c>
-      <c r="BK7">
-        <v>0.11</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>114</v>
-      </c>
-      <c r="BM7">
-        <v>0.11</v>
-      </c>
-      <c r="BN7">
-        <v>0.11</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>116</v>
-      </c>
-      <c r="BP7">
-        <v>0.11</v>
-      </c>
-      <c r="BQ7">
-        <v>0.11</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>116</v>
-      </c>
       <c r="BS7">
         <v>0.11</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>0.11</v>
       </c>
       <c r="BU7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3033,129 +3033,129 @@
         <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" t="s">
         <v>119</v>
-      </c>
-      <c r="E2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" t="s">
         <v>118</v>
       </c>
-      <c r="C3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>119</v>
-      </c>
-      <c r="E3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" t="s">
         <v>119</v>
-      </c>
-      <c r="E4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" t="s">
         <v>119</v>
-      </c>
-      <c r="E5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" t="s">
         <v>119</v>
-      </c>
-      <c r="E6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" t="s">
         <v>118</v>
       </c>
-      <c r="C7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>119</v>
-      </c>
-      <c r="E7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/pytest_data_v2.xlsx
+++ b/data/pytest_data_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jess9\Documents\Co-opDocuments\UHN\JupyterNotebook\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AE9DB0-AA6E-498E-BB43-B05B61291FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0310B50D-38A8-4496-BDF0-BDAC41CE878C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{4784587D-BF86-483F-A4DD-B2F93D88FED1}"/>
   </bookViews>
@@ -1194,7 +1194,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
